--- a/data/Flow Type.xlsx
+++ b/data/Flow Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB5DDC-140D-4FAE-B0C0-1ACC91074755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB6F15-7D54-47E0-8689-DB1275FDA575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5745" windowWidth="15990" windowHeight="24840" firstSheet="2" activeTab="2" xr2:uid="{246CAACF-1AFC-4989-A773-66D704ECB182}"/>
+    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="2" activeTab="2" xr2:uid="{246CAACF-1AFC-4989-A773-66D704ECB182}"/>
   </bookViews>
   <sheets>
     <sheet name="ManifestReferenceTypes" sheetId="4" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Flow Type" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Flow Type'!$A$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Flow Type'!$A$1:$B$43</definedName>
     <definedName name="Range_ManifestReferenceTypes">ManifestReferenceTypes!$A$2:$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -120,16 +120,76 @@
     <t>Emission: Snag Stem -&gt; Atmosphere</t>
   </si>
   <si>
-    <t>LULC: Emission</t>
-  </si>
-  <si>
-    <t>LULC: Harvest</t>
-  </si>
-  <si>
-    <t>LULC: Mortality</t>
-  </si>
-  <si>
-    <t>LULC: Transfer</t>
+    <t>Transfer: AG Slow -&gt; BG Slow</t>
+  </si>
+  <si>
+    <t>Transfer: Snag Branch -&gt; AG Fast</t>
+  </si>
+  <si>
+    <t>Transfer: Snag Stem -&gt; AG Medium</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>Reference Type</t>
+  </si>
+  <si>
+    <t>Data Location</t>
+  </si>
+  <si>
+    <t>Column Names</t>
+  </si>
+  <si>
+    <t>stsimsf_FlowType</t>
+  </si>
+  <si>
+    <t>Flow Type</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Name,Description</t>
+  </si>
+  <si>
+    <t>ReferenceType</t>
+  </si>
+  <si>
+    <t>Named Range</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission Live CH4</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO2</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CO</t>
+  </si>
+  <si>
+    <t>LULC: Emission DOM CH4</t>
+  </si>
+  <si>
+    <t>LULC: Harvest Live</t>
+  </si>
+  <si>
+    <t>LULC: Mortality Live</t>
+  </si>
+  <si>
+    <t>LULC: Transfer DOM</t>
+  </si>
+  <si>
+    <t>LULC: Harvest DOM</t>
   </si>
   <si>
     <t>Net Growth: Atmosphere -&gt; Coarse Roots</t>
@@ -145,48 +205,6 @@
   </si>
   <si>
     <t>Net Growth: Atmosphere -&gt; Other Wood</t>
-  </si>
-  <si>
-    <t>Transfer: AG Slow -&gt; BG Slow</t>
-  </si>
-  <si>
-    <t>Transfer: Snag Branch -&gt; AG Fast</t>
-  </si>
-  <si>
-    <t>Transfer: Snag Stem -&gt; AG Medium</t>
-  </si>
-  <si>
-    <t>Display Name</t>
-  </si>
-  <si>
-    <t>Reference Type</t>
-  </si>
-  <si>
-    <t>Data Location</t>
-  </si>
-  <si>
-    <t>Column Names</t>
-  </si>
-  <si>
-    <t>stsimsf_FlowType</t>
-  </si>
-  <si>
-    <t>Flow Type</t>
-  </si>
-  <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
-    <t>Name,Description</t>
-  </si>
-  <si>
-    <t>ReferenceType</t>
-  </si>
-  <si>
-    <t>Named Range</t>
-  </si>
-  <si>
-    <t>Table</t>
   </si>
 </sst>
 </file>
@@ -276,30 +294,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -326,6 +320,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -340,14 +358,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B675DB-4004-43C4-9B2C-608F5CFAEFF1}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B675DB-4004-43C4-9B2C-608F5CFAEFF1}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{C9A08070-7B5D-4DDD-9496-35EA7078AED8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0447B127-4D16-480F-94FB-2A94420C258A}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{190C12BB-CDFD-448A-9D6E-3309A7D0C927}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E51330F8-C5DE-41AE-ABDB-92DA42E993BE}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B06674D6-0C85-4F02-9AC9-4E41CD836340}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AD0D9F90-4098-4BBE-94CB-FC693C63EE44}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0447B127-4D16-480F-94FB-2A94420C258A}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{190C12BB-CDFD-448A-9D6E-3309A7D0C927}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E51330F8-C5DE-41AE-ABDB-92DA42E993BE}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B06674D6-0C85-4F02-9AC9-4E41CD836340}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AD0D9F90-4098-4BBE-94CB-FC693C63EE44}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,22 +680,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -710,33 +728,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -754,17 +772,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2C523C-E534-4D7C-8806-D2E181973E7E}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -898,66 +916,114 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
+      <c r="A30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
+      <c r="A31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
+      <c r="A32" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
+      <c r="A33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
+      <c r="A34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
+      <c r="A35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B37" xr:uid="{34E1F4DC-1083-48A9-BFFA-360131311975}"/>
+  <autoFilter ref="A1:B43" xr:uid="{34E1F4DC-1083-48A9-BFFA-360131311975}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>

--- a/data/Flow Type.xlsx
+++ b/data/Flow Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB6F15-7D54-47E0-8689-DB1275FDA575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D466D9F-FADD-4704-8D41-96D40E56F100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3315" windowWidth="14505" windowHeight="11220" firstSheet="2" activeTab="2" xr2:uid="{246CAACF-1AFC-4989-A773-66D704ECB182}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14610" windowHeight="11565" firstSheet="2" activeTab="2" xr2:uid="{246CAACF-1AFC-4989-A773-66D704ECB182}"/>
   </bookViews>
   <sheets>
     <sheet name="ManifestReferenceTypes" sheetId="4" state="hidden" r:id="rId1"/>
@@ -192,19 +192,19 @@
     <t>LULC: Harvest DOM</t>
   </si>
   <si>
-    <t>Net Growth: Atmosphere -&gt; Coarse Roots</t>
-  </si>
-  <si>
-    <t>Net Growth: Atmosphere -&gt; Fine Roots</t>
-  </si>
-  <si>
-    <t>Net Growth: Atmosphere -&gt; Foliage</t>
-  </si>
-  <si>
-    <t>Net Growth: Atmosphere -&gt; Merchantable</t>
-  </si>
-  <si>
-    <t>Net Growth: Atmosphere -&gt; Other Wood</t>
+    <t>Net Growth Forest: Atmosphere -&gt; Coarse Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Fine Roots</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Foliage</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Merchantable</t>
+  </si>
+  <si>
+    <t>Net Growth Forest: Atmosphere -&gt; Other Wood</t>
   </si>
 </sst>
 </file>
@@ -775,8 +775,8 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
